--- a/Assets/Resources/Story/1.xlsx
+++ b/Assets/Resources/Story/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Uinty projects\视觉小说\Assets\Resources\Story\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B24124E-DBAF-4B8F-82A9-6068C8B5B2A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31182EC6-13B0-4AAE-9B2C-F9C1FFE3052E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="2850" windowWidth="23970" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2880" yWindow="3645" windowWidth="23970" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,33 +25,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
+  <si>
+    <t>全民制作人们</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大家好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢迎来到我的untiy课堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我会唱跳，rap，篮球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>music！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>Annie</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hi!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Bella</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I'm fine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I'm fine,too</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>How are you?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hello!</t>
+    <t>及你太美</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,52 +381,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Story/1.xlsx
+++ b/Assets/Resources/Story/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Uinty projects\视觉小说\Assets\Resources\Story\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31182EC6-13B0-4AAE-9B2C-F9C1FFE3052E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684D6E6C-7DFF-4ECA-81E1-0C8283D803B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="3645" windowWidth="23970" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9435" yWindow="3000" windowWidth="23970" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>全民制作人们</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,30 @@
   </si>
   <si>
     <t>及你太美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avatar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vocal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BgImg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bgm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,83 +405,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D1">
+      <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Assets/Resources/Story/1.xlsx
+++ b/Assets/Resources/Story/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Uinty projects\视觉小说\Assets\Resources\Story\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684D6E6C-7DFF-4ECA-81E1-0C8283D803B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBE8F10-3969-4CD7-A4B1-819C3B40C09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9435" yWindow="3000" windowWidth="23970" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="8130" windowWidth="23970" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t>全民制作人们</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,34 @@
   </si>
   <si>
     <t>Bgm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character1Action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appearAt (x, y)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character1lmg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character12mg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character2Action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disappear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moveTo (x, y)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,15 +433,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -432,8 +460,20 @@
       <c r="F1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -452,8 +492,17 @@
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -466,8 +515,14 @@
       <c r="D3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -480,8 +535,11 @@
       <c r="E4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -491,8 +549,11 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -502,8 +563,11 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -512,6 +576,9 @@
       </c>
       <c r="C7" t="s">
         <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Story/1.xlsx
+++ b/Assets/Resources/Story/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Uinty projects\视觉小说\Assets\Resources\Story\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBE8F10-3969-4CD7-A4B1-819C3B40C09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BEFC476-5831-4DF1-ACAE-D551D711D487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="8130" windowWidth="23970" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1050" yWindow="8325" windowWidth="23970" windowHeight="9135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>全民制作人们</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,23 +83,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Character1Action</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>appearAt (x, y)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character1lmg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character12mg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character2Action</t>
+    <t>Action1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appearAt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moveTo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -107,7 +119,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>moveTo (x, y)</t>
+    <t>Bella</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,15 +445,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -464,16 +476,22 @@
         <v>14</v>
       </c>
       <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" t="s">
-        <v>18</v>
       </c>
       <c r="J1" t="s">
         <v>17</v>
       </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -493,16 +511,16 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -515,14 +533,17 @@
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
       <c r="J3" t="s">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -536,10 +557,13 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="H4">
+        <v>540</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -549,11 +573,11 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="I5" t="s">
-        <v>20</v>
+      <c r="J5" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -564,10 +588,13 @@
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="K6">
+        <v>-540</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -577,8 +604,8 @@
       <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="I7" t="s">
-        <v>19</v>
+      <c r="J7" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Story/1.xlsx
+++ b/Assets/Resources/Story/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Uinty projects\视觉小说\Assets\Resources\Story\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BEFC476-5831-4DF1-ACAE-D551D711D487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD674A3-8E0B-4EE4-8E72-0E2DFE32C8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="8325" windowWidth="23970" windowHeight="9135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="7065" windowWidth="23970" windowHeight="9135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -448,7 +448,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -553,6 +553,9 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -573,8 +576,14 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
       <c r="J5" t="s">
         <v>21</v>
+      </c>
+      <c r="K5">
+        <v>-540</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -587,11 +596,11 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
       <c r="G6" t="s">
         <v>22</v>
-      </c>
-      <c r="K6">
-        <v>-540</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -603,6 +612,9 @@
       </c>
       <c r="C7" t="s">
         <v>6</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
       </c>
       <c r="J7" t="s">
         <v>22</v>

--- a/Assets/Resources/Story/1.xlsx
+++ b/Assets/Resources/Story/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Uinty projects\视觉小说\Assets\Resources\Story\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD674A3-8E0B-4EE4-8E72-0E2DFE32C8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE58AE4C-25DE-42AB-8DD1-E73EF6547993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="7065" windowWidth="23970" windowHeight="9135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8235" yWindow="3915" windowWidth="23970" windowHeight="9135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>全民制作人们</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,6 +120,18 @@
   </si>
   <si>
     <t>Bella</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choice1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choice2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -620,6 +632,23 @@
         <v>22</v>
       </c>
     </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
